--- a/main/ig/StructureDefinition-as-healthcareservice-social-equipment.xlsx
+++ b/main/ig/StructureDefinition-as-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T09:39:16+00:00</t>
+    <t>2025-08-01T06:15:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-healthcareservice-social-equipment.xlsx
+++ b/main/ig/StructureDefinition-as-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:15:10+00:00</t>
+    <t>2025-08-11T13:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-healthcareservice-social-equipment.xlsx
+++ b/main/ig/StructureDefinition-as-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:13:26+00:00</t>
+    <t>2025-08-11T13:13:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-healthcareservice-social-equipment.xlsx
+++ b/main/ig/StructureDefinition-as-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:13:41+00:00</t>
+    <t>2025-08-11T17:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-healthcareservice-social-equipment.xlsx
+++ b/main/ig/StructureDefinition-as-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T17:10:25+00:00</t>
+    <t>2025-09-16T13:34:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -449,7 +449,7 @@
     <t>HealthcareService.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -487,7 +487,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -511,7 +511,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -554,7 +554,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -1047,7 +1047,7 @@
     <t>HealthcareService.extension.extension.value[x].low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1446,7 +1446,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1530,7 +1530,7 @@
     <t>HealthcareService.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1608,7 +1608,7 @@
     <t>A category of the service(s) that could be provided.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-category</t>
+    <t>http://hl7.org/fhir/ValueSet/service-category|4.0.1</t>
   </si>
   <si>
     <t>.code</t>
@@ -1633,7 +1633,7 @@
     <t>Additional details about where the content was created (e.g. clinical specialty).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+    <t>http://hl7.org/fhir/ValueSet/service-type|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">value:$this}
@@ -1670,13 +1670,13 @@
     <t>A specialty that a healthcare service may provide.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes|4.0.1</t>
   </si>
   <si>
     <t>HealthcareService.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1797,7 +1797,7 @@
     <t>The provision means being commissioned by, contractually obliged or financially sourced. Types of costings that may apply to this healthcare service, such if the service may be available for free, some discounts available, or fees apply.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-provision-conditions</t>
+    <t>http://hl7.org/fhir/ValueSet/service-provision-conditions|4.0.1</t>
   </si>
   <si>
     <t>.actrelationship[typeCode=PRCN].observation[moodCode=EVN.CRT]</t>
@@ -1884,7 +1884,7 @@
     <t>Government or local programs that this service applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/program</t>
+    <t>http://hl7.org/fhir/ValueSet/program|4.0.1</t>
   </si>
   <si>
     <t>.actrelationship[typeCode=PERT].observation</t>
@@ -1929,7 +1929,7 @@
     <t>The methods of referral can be used when referring to a specific HealthCareService resource.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-referral-method</t>
+    <t>http://hl7.org/fhir/ValueSet/service-referral-method|4.0.1</t>
   </si>
   <si>
     <t>HealthcareService.appointmentRequired</t>
@@ -2062,7 +2062,7 @@
     <t>HealthcareService.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Endpoint)
+    <t xml:space="preserve">Reference(Endpoint|4.0.1)
 </t>
   </si>
   <si>

--- a/main/ig/StructureDefinition-as-healthcareservice-social-equipment.xlsx
+++ b/main/ig/StructureDefinition-as-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T13:34:10+00:00</t>
+    <t>2025-09-18T08:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-healthcareservice-social-equipment.xlsx
+++ b/main/ig/StructureDefinition-as-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T08:13:56+00:00</t>
+    <t>2025-09-18T15:39:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-healthcareservice-social-equipment.xlsx
+++ b/main/ig/StructureDefinition-as-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T15:39:47+00:00</t>
+    <t>2025-09-18T15:54:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-healthcareservice-social-equipment.xlsx
+++ b/main/ig/StructureDefinition-as-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T15:54:11+00:00</t>
+    <t>2025-10-08T12:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3106,7 +3106,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>116</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>195</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>273</v>
       </c>
@@ -10370,7 +10370,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
         <v>314</v>
       </c>
@@ -12903,7 +12903,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="96" hidden="true">
+    <row r="96">
       <c r="A96" t="s" s="2">
         <v>359</v>
       </c>
@@ -20609,7 +20609,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="166" hidden="true">
+    <row r="166">
       <c r="A166" t="s" s="2">
         <v>579</v>
       </c>
@@ -21380,7 +21380,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="173" hidden="true">
+    <row r="173">
       <c r="A173" t="s" s="2">
         <v>607</v>
       </c>
@@ -23582,12 +23582,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AM192">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/main/ig/StructureDefinition-as-healthcareservice-social-equipment.xlsx
+++ b/main/ig/StructureDefinition-as-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:14:02+00:00</t>
+    <t>2025-10-08T12:28:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-healthcareservice-social-equipment.xlsx
+++ b/main/ig/StructureDefinition-as-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:28:03+00:00</t>
+    <t>2025-10-08T12:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-healthcareservice-social-equipment.xlsx
+++ b/main/ig/StructureDefinition-as-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:56:25+00:00</t>
+    <t>2025-10-08T13:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
